--- a/课后作业成绩2018/作业5成绩.xlsx
+++ b/课后作业成绩2018/作业5成绩.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongyanxiang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongyanxiang\Documents\GitHub\Discrete-mathematics\课后作业成绩2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2112,9 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2">
+        <v>100</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
